--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -947,55 +947,55 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
         <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -1016,37 +1016,37 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -783,10 +783,10 @@
         <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -783,10 +783,10 @@
         <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -959,16 +959,16 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,10 +965,10 @@
         <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -1076,6 +1076,188 @@
         <v>51</v>
       </c>
       <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fakytOLi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
@@ -1120,10 +1120,10 @@
         <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
         <v>2.47</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1153,16 +1153,16 @@
         <v>2.65</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
         <v>10.5</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
@@ -1177,7 +1177,7 @@
         <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.4</v>
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>120</v>
@@ -1249,10 +1249,10 @@
         <v>35</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1117,25 +1117,25 @@
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
         <v>4.45</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
         <v>2.92</v>
@@ -1150,16 +1150,16 @@
         <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
         <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
@@ -1171,13 +1171,13 @@
         <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="n">
         <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.4</v>
@@ -1189,16 +1189,16 @@
         <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1210,7 +1210,7 @@
         <v>700</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>400</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
         <v>7.4</v>
@@ -1237,13 +1237,13 @@
         <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fakytOLi</t>
+          <t>lMS9P2yB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,154 +1102,154 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2.37</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>4.45</v>
+        <v>2.95</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.45</v>
+        <v>3.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>10.75</v>
+        <v>7.9</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR4" t="n">
         <v>80</v>
       </c>
-      <c r="AG4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>175</v>
-      </c>
       <c r="AS4" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>70</v>
       </c>
-      <c r="AW4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>35</v>
-      </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
         <v>250</v>
@@ -1258,6 +1258,734 @@
         <v>51</v>
       </c>
       <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rLLINt6N</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vi7lIKTp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fakytOLi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2Phqv2j4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1293,37 +1293,37 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
         <v>1.95</v>
@@ -1341,7 +1341,7 @@
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
         <v>45</v>
@@ -1359,19 +1359,19 @@
         <v>80</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH5" t="n">
         <v>6.2</v>
@@ -1380,10 +1380,10 @@
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1401,7 +1401,7 @@
         <v>45</v>
       </c>
       <c r="AQ5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR5" t="n">
         <v>350</v>
@@ -1422,7 +1422,7 @@
         <v>3.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY5" t="n">
         <v>18</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1120,79 +1120,79 @@
         <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD4" t="n">
         <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
         <v>9.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10.25</v>
@@ -1204,55 +1204,55 @@
         <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1293,64 +1293,64 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="K5" t="n">
         <v>2.32</v>
       </c>
       <c r="L5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="X5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AA5" t="n">
         <v>90</v>
@@ -1359,19 +1359,19 @@
         <v>80</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>8.75</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6.2</v>
@@ -1383,16 +1383,16 @@
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO5" t="n">
         <v>45</v>
@@ -1410,7 +1410,7 @@
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
@@ -1425,16 +1425,16 @@
         <v>6.3</v>
       </c>
       <c r="AY5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
         <v>4.85</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K6" t="n">
         <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,7 +1502,7 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1514,28 +1514,28 @@
         <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1553,22 +1553,22 @@
         <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
@@ -1577,22 +1577,22 @@
         <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,16 +1601,16 @@
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA6" t="n">
         <v>250</v>
@@ -1657,82 +1657,82 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>65</v>
       </c>
       <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
         <v>45</v>
       </c>
-      <c r="AB7" t="n">
-        <v>50</v>
-      </c>
       <c r="AC7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>6.4</v>
@@ -1741,7 +1741,7 @@
         <v>8.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>15.5</v>
@@ -1753,34 +1753,34 @@
         <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR7" t="n">
         <v>150</v>
       </c>
-      <c r="AR7" t="n">
-        <v>175</v>
-      </c>
       <c r="AS7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
         <v>3.7</v>
@@ -1789,13 +1789,13 @@
         <v>9.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>
@@ -1693,73 +1693,73 @@
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="n">
         <v>45</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE7" t="n">
         <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
         <v>6.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1774,28 +1774,28 @@
         <v>350</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
         <v>3.4</v>
@@ -1860,25 +1860,25 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.37</v>
       </c>
       <c r="T8" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>
@@ -1896,19 +1896,19 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1938,25 +1938,25 @@
         <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU8" t="n">
         <v>6.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1117,34 +1117,34 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,10 +1159,10 @@
         <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1174,13 +1174,13 @@
         <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE4" t="n">
         <v>12.5</v>
@@ -1189,22 +1189,22 @@
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>400</v>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>55</v>
@@ -1240,19 +1240,19 @@
         <v>4.85</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
         <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="L6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,58 +1499,58 @@
         <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA6" t="n">
         <v>10.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1559,31 +1559,31 @@
         <v>50</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>175</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
         <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR6" t="n">
         <v>37</v>
@@ -1592,22 +1592,22 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
         <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -1616,7 +1616,7 @@
         <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,145 +1657,145 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.88</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA7" t="n">
         <v>60</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>37</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>75</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="I5" t="n">
         <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
@@ -1341,16 +1341,16 @@
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="n">
         <v>90</v>
@@ -1359,22 +1359,22 @@
         <v>80</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
@@ -1392,7 +1392,7 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO5" t="n">
         <v>45</v>
@@ -1401,7 +1401,7 @@
         <v>45</v>
       </c>
       <c r="AQ5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AR5" t="n">
         <v>350</v>
@@ -1410,7 +1410,7 @@
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
@@ -1422,13 +1422,13 @@
         <v>3.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>50</v>
@@ -1657,115 +1657,115 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
         <v>45</v>
       </c>
-      <c r="AB7" t="n">
-        <v>50</v>
-      </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR7" t="n">
         <v>175</v>
@@ -1774,28 +1774,28 @@
         <v>400</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -947,22 +947,22 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1669,22 +1669,22 @@
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.85</v>
@@ -1705,25 +1705,25 @@
         <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
         <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1732,7 +1732,7 @@
         <v>15.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>6.6</v>
@@ -1750,22 +1750,22 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR7" t="n">
         <v>175</v>
@@ -1774,7 +1774,7 @@
         <v>400</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.3</v>
@@ -1786,7 +1786,7 @@
         <v>3.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,16 +765,16 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -1111,148 +1111,148 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
         <v>2.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
         <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>37</v>
       </c>
       <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.37</v>
       </c>
       <c r="L5" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1317,52 +1317,52 @@
         <v>8.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.05</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
         <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1371,19 +1371,19 @@
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1392,25 +1392,25 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ5" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AR5" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
@@ -1419,19 +1419,19 @@
         <v>90</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="K6" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AA6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="n">
         <v>70</v>
       </c>
-      <c r="AG6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,16 +765,16 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1120,13 +1120,13 @@
         <v>2.85</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1141,40 +1141,40 @@
         <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>6.8</v>
@@ -1183,31 +1183,31 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
         <v>4.4</v>
@@ -1216,19 +1216,19 @@
         <v>12.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>50</v>
       </c>
       <c r="AR4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>6.7</v>
@@ -1243,16 +1243,16 @@
         <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1478,19 +1478,19 @@
         <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.72</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1511,16 +1511,16 @@
         <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
@@ -1538,7 +1538,7 @@
         <v>10.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="n">
         <v>9.5</v>
@@ -1550,13 +1550,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>26</v>
@@ -1577,7 +1577,7 @@
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
@@ -1592,7 +1592,7 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU6" t="n">
         <v>8.25</v>
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
@@ -1610,13 +1610,13 @@
         <v>40</v>
       </c>
       <c r="AZ6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA6" t="n">
         <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.05</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1687,10 +1687,10 @@
         <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,103 +1699,103 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.9</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>28</v>
       </c>
-      <c r="AM7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>24</v>
-      </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
@@ -1854,7 +1854,7 @@
         <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1884,13 +1884,13 @@
         <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1899,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1932,19 +1932,19 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
         <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>45</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>70</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -1839,76 +1839,76 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
         <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1932,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="n">
         <v>300</v>
@@ -1941,25 +1941,25 @@
         <v>4.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>70</v>
       </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>2.77</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1875,10 +1875,10 @@
         <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,16 +1887,16 @@
         <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>16.5</v>
@@ -1911,22 +1911,22 @@
         <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1938,7 +1938,7 @@
         <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO8" t="n">
         <v>11.5</v>
@@ -1956,7 +1956,7 @@
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU8" t="n">
         <v>6.5</v>
@@ -1965,10 +1965,10 @@
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -935,13 +935,13 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -992,13 +992,13 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1028,10 +1028,10 @@
         <v>301</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1043,13 +1043,13 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -932,13 +932,13 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -953,31 +953,31 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1025,16 +1025,16 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1046,13 +1046,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S8ZOSblR</t>
+          <t>63lU6HR7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/10/2024</t>
+          <t>14/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MJCkWIE8</t>
+          <t>S8ZOSblR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,92 +910,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
         <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
         <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,34 +1004,34 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
         <v>34</v>
       </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>351</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1046,43 +1046,43 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lMS9P2yB</t>
+          <t>MJCkWIE8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.75</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>19</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>16</v>
-      </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rLLINt6N</t>
+          <t>lMS9P2yB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8.75</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>23</v>
-      </c>
-      <c r="X5" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="n">
         <v>100</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>45</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vi7lIKTp</t>
+          <t>rLLINt6N</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>8.75</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>4.55</v>
       </c>
       <c r="I6" t="n">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>1.78</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>23</v>
+      </c>
+      <c r="X6" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
         <v>9.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AV6" t="n">
         <v>90</v>
       </c>
-      <c r="AL6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>70</v>
-      </c>
       <c r="AW6" t="n">
-        <v>9.25</v>
+        <v>3.1</v>
       </c>
       <c r="AX6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA6" t="n">
         <v>45</v>
       </c>
-      <c r="AY6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>300</v>
-      </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fakytOLi</t>
+          <t>vi7lIKTp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.45</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W7" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
         <v>26</v>
       </c>
-      <c r="Y7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL7" t="n">
         <v>90</v>
       </c>
-      <c r="AG7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AM7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.5</v>
+        <v>9.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.25</v>
+        <v>45</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2Phqv2j4</t>
+          <t>fakytOLi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,154 +1830,154 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.77</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.5</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>8.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>27</v>
       </c>
-      <c r="AM8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>70</v>
-      </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>250</v>
@@ -1986,6 +1986,188 @@
         <v>51</v>
       </c>
       <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2Phqv2j4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>63lU6HR7</t>
+          <t>S8ZOSblR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>15/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.44</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
         <v>15</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
         <v>34</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S8ZOSblR</t>
+          <t>MJCkWIE8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,92 +910,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
         <v>19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,34 +1004,34 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1046,43 +1046,43 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MJCkWIE8</t>
+          <t>lMS9P2yB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.4</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lMS9P2yB</t>
+          <t>rLLINt6N</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.37</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>3.45</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>23</v>
+      </c>
+      <c r="X5" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
         <v>6.8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AH5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AM5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
         <v>8.75</v>
       </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AV5" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="AX5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>16</v>
       </c>
-      <c r="AY5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>75</v>
-      </c>
       <c r="BA5" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rLLINt6N</t>
+          <t>vi7lIKTp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.75</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8.25</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>23</v>
-      </c>
-      <c r="X6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AV6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>300</v>
       </c>
-      <c r="AA6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="BA6" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB6" t="n">
         <v>450</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vi7lIKTp</t>
+          <t>fakytOLi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>7.9</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.9</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>6.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR7" t="n">
         <v>200</v>
       </c>
-      <c r="AL7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>35</v>
-      </c>
       <c r="AS7" t="n">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.25</v>
+        <v>3.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>45</v>
+        <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fakytOLi</t>
+          <t>2Phqv2j4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,154 +1830,154 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.45</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.7</v>
       </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>11.75</v>
       </c>
-      <c r="X8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>50</v>
       </c>
-      <c r="AB8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AW8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="n">
         <v>90</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>250</v>
@@ -1986,188 +1986,6 @@
         <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2Phqv2j4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>15/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15:45</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1114,10 +1114,10 @@
         <v>2.37</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
         <v>2.95</v>
@@ -1126,37 +1126,37 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.98</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1168,7 +1168,7 @@
         <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
         <v>19.5</v>
@@ -1177,19 +1177,19 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN4" t="n">
         <v>4.4</v>
@@ -1228,7 +1228,7 @@
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU4" t="n">
         <v>6.7</v>
@@ -1237,16 +1237,16 @@
         <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY4" t="n">
         <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
         <v>100</v>
@@ -1296,16 +1296,16 @@
         <v>8.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J5" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L5" t="n">
         <v>1.78</v>
@@ -1314,34 +1314,34 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X5" t="n">
         <v>65</v>
@@ -1350,16 +1350,16 @@
         <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9.5</v>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1395,40 +1395,40 @@
         <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP5" t="n">
         <v>50</v>
       </c>
       <c r="AQ5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AR5" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW5" t="n">
         <v>3.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA5" t="n">
         <v>45</v>
@@ -1481,7 +1481,7 @@
         <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.72</v>
@@ -1490,7 +1490,7 @@
         <v>2.62</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,43 +1499,43 @@
         <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
         <v>3.45</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="n">
         <v>24</v>
@@ -1553,25 +1553,25 @@
         <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
         <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
         <v>175</v>
@@ -1595,13 +1595,13 @@
         <v>3.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
@@ -1616,7 +1616,7 @@
         <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,37 +1657,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.78</v>
@@ -1699,34 +1699,34 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="n">
         <v>55</v>
       </c>
       <c r="AC7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1735,16 +1735,16 @@
         <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1756,13 +1756,13 @@
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
       </c>
       <c r="AP7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ7" t="n">
         <v>175</v>
@@ -1780,16 +1780,16 @@
         <v>7.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>27</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="J8" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1875,43 +1875,43 @@
         <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>45</v>
@@ -1920,43 +1920,43 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
         <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>6.5</v>
@@ -1965,22 +1965,22 @@
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,16 +765,16 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -989,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,16 +1004,16 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -1058,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
@@ -1341,13 +1341,13 @@
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>250</v>
@@ -1359,7 +1359,7 @@
         <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
         <v>9.5</v>
@@ -1374,7 +1374,7 @@
         <v>6.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
@@ -1392,7 +1392,7 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO5" t="n">
         <v>50</v>
@@ -1404,31 +1404,31 @@
         <v>400</v>
       </c>
       <c r="AR5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW5" t="n">
         <v>3.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
         <v>45</v>
@@ -1657,37 +1657,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.78</v>
@@ -1699,100 +1699,100 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
         <v>45</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR7" t="n">
         <v>200</v>
       </c>
       <c r="AS7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,16 +765,16 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -950,19 +950,19 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1016,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1293,145 +1293,145 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W5" t="n">
+        <v>20</v>
+      </c>
+      <c r="X5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI5" t="n">
         <v>8.25</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>22</v>
-      </c>
-      <c r="X5" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -929,148 +929,148 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
         <v>7.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,88 +1111,88 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10.25</v>
@@ -1201,40 +1201,40 @@
         <v>35</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
         <v>4.85</v>
@@ -1293,58 +1293,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.02</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
         <v>24</v>
@@ -1353,28 +1353,28 @@
         <v>200</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
         <v>80</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>100</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI5" t="n">
         <v>8.25</v>
@@ -1383,16 +1383,16 @@
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO5" t="n">
         <v>45</v>
@@ -1410,25 +1410,25 @@
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW5" t="n">
         <v>3.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA5" t="n">
         <v>50</v>
@@ -1475,136 +1475,136 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>8.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
         <v>10.5</v>
       </c>
       <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="n">
         <v>24</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>25</v>
-      </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AK6" t="n">
         <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS6" t="n">
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY6" t="n">
         <v>40</v>
@@ -1613,10 +1613,10 @@
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.78</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W7" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>26</v>
       </c>
-      <c r="AP7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -947,22 +947,22 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>6.6</v>
@@ -1496,37 +1496,37 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W6" t="n">
         <v>9.25</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1535,88 +1535,88 @@
         <v>8.75</v>
       </c>
       <c r="AA6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
         <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>40</v>
       </c>
       <c r="AY6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA6" t="n">
         <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.91</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.42</v>
@@ -1699,67 +1699,67 @@
         <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="W7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP7" t="n">
         <v>37</v>
@@ -1777,28 +1777,28 @@
         <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>80</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.07</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1153,61 +1153,61 @@
         <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>35</v>
       </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>30</v>
-      </c>
       <c r="AM4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
         <v>4.35</v>
@@ -1216,13 +1216,13 @@
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>55</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
@@ -1231,28 +1231,28 @@
         <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
@@ -1302,13 +1302,13 @@
         <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1317,28 +1317,28 @@
         <v>7.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1365,16 +1365,16 @@
         <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>100</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AI5" t="n">
         <v>8.25</v>
@@ -1383,10 +1383,10 @@
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
@@ -1410,25 +1410,25 @@
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW5" t="n">
         <v>3.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>50</v>
@@ -1657,142 +1657,142 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
         <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.3</v>
       </c>
       <c r="AE7" t="n">
         <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK7" t="n">
         <v>12.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>6.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR7" t="n">
         <v>200</v>
       </c>
-      <c r="AR7" t="n">
-        <v>250</v>
-      </c>
       <c r="AS7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX7" t="n">
         <v>7.8</v>
       </c>
-      <c r="AV7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8</v>
-      </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -789,67 +789,67 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
         <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
       </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,34 +861,34 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1114,52 +1114,52 @@
         <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>11.75</v>
@@ -1168,46 +1168,46 @@
         <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>14.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN4" t="n">
         <v>4.35</v>
@@ -1222,16 +1222,16 @@
         <v>55</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
@@ -1240,13 +1240,13 @@
         <v>4.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA4" t="n">
         <v>110</v>
@@ -1657,61 +1657,61 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>90</v>
@@ -1720,46 +1720,46 @@
         <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
         <v>35</v>
@@ -1771,34 +1771,34 @@
         <v>200</v>
       </c>
       <c r="AS7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="n">
         <v>3.45</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -971,61 +971,61 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.65</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>12.5</v>
@@ -1714,31 +1714,31 @@
         <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="n">
         <v>50</v>
       </c>
-      <c r="AB7" t="n">
-        <v>55</v>
-      </c>
       <c r="AC7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.1</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
@@ -1750,7 +1750,7 @@
         <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1759,10 +1759,10 @@
         <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ7" t="n">
         <v>175</v>
@@ -1771,34 +1771,34 @@
         <v>200</v>
       </c>
       <c r="AS7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX7" t="n">
         <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA7" t="n">
         <v>65</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
         <v>7.5</v>
@@ -1487,76 +1487,76 @@
         <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>10.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1568,55 +1568,55 @@
         <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
         <v>3.35</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY6" t="n">
         <v>40</v>
       </c>
-      <c r="AY6" t="n">
-        <v>37</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -789,16 +789,16 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,13 +861,13 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,7 +885,7 @@
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -944,13 +944,13 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -983,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -1001,25 +1001,25 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1296,52 +1296,52 @@
         <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J5" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
@@ -1353,28 +1353,28 @@
         <v>200</v>
       </c>
       <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
         <v>90</v>
       </c>
-      <c r="AB5" t="n">
-        <v>80</v>
-      </c>
       <c r="AC5" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8.25</v>
@@ -1383,10 +1383,10 @@
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
@@ -1398,43 +1398,43 @@
         <v>45</v>
       </c>
       <c r="AP5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ5" t="n">
         <v>350</v>
       </c>
       <c r="AR5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1520,19 +1520,19 @@
         <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA6" t="n">
         <v>10.25</v>
@@ -1553,22 +1553,22 @@
         <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
@@ -1577,7 +1577,7 @@
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
@@ -1601,7 +1601,7 @@
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
@@ -1616,7 +1616,7 @@
         <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L7" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="U7" t="n">
         <v>1.88</v>
@@ -1705,97 +1705,97 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK7" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -789,16 +789,16 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,13 +861,13 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,7 +885,7 @@
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -750,7 +750,7 @@
         <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.9</v>
+        <v>10.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AV6" t="n">
         <v>70</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AW6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>500</v>
       </c>
-      <c r="AN6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>300</v>
-      </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1660,49 +1660,49 @@
         <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
         <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.85</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.9</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
         <v>100</v>
@@ -1723,10 +1723,10 @@
         <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1735,22 +1735,22 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
         <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1774,7 +1774,7 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
         <v>7.8</v>
@@ -1786,16 +1786,16 @@
         <v>3.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,67 +1499,67 @@
         <v>9.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="S6" t="n">
         <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>25</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="n">
         <v>100</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
         <v>400</v>
@@ -1568,52 +1568,52 @@
         <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AX6" t="n">
         <v>70</v>
       </c>
-      <c r="AW6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>65</v>
-      </c>
       <c r="AY6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ6" t="n">
         <v>500</v>
       </c>
       <c r="BA6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB6" t="n">
         <v>500</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
@@ -1711,43 +1711,43 @@
         <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
         <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
         <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1756,46 +1756,46 @@
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP7" t="n">
         <v>35</v>
       </c>
       <c r="AQ7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR7" t="n">
         <v>200</v>
       </c>
-      <c r="AR7" t="n">
-        <v>250</v>
-      </c>
       <c r="AS7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1296,10 +1296,10 @@
         <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -1314,19 +1314,19 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1341,7 +1341,7 @@
         <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
@@ -1359,7 +1359,7 @@
         <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>8.25</v>
@@ -1368,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1383,7 +1383,7 @@
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1416,7 +1416,7 @@
         <v>8.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW5" t="n">
         <v>3.1</v>
@@ -1657,97 +1657,97 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH7" t="n">
         <v>7</v>
       </c>
-      <c r="AE7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1756,46 +1756,46 @@
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AY7" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1875,106 +1875,106 @@
         <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>45</v>
       </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>50</v>
-      </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA8" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -777,16 +777,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -798,16 +798,16 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -819,25 +819,25 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
         <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,34 +846,34 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1320,7 +1320,7 @@
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>1.88</v>
@@ -1329,16 +1329,16 @@
         <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>17.5</v>
@@ -1347,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>200</v>
@@ -1362,10 +1362,10 @@
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>120</v>
@@ -1374,13 +1374,13 @@
         <v>5.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>12.5</v>
@@ -1395,13 +1395,13 @@
         <v>8.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP5" t="n">
         <v>50</v>
       </c>
       <c r="AQ5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR5" t="n">
         <v>400</v>
@@ -1410,7 +1410,7 @@
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU5" t="n">
         <v>8.75</v>
@@ -1422,13 +1422,13 @@
         <v>3.1</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY5" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
         <v>55</v>
@@ -1657,73 +1657,73 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
         <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
         <v>7.3</v>
@@ -1735,28 +1735,28 @@
         <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
@@ -1774,7 +1774,7 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
         <v>7.9</v>
@@ -1786,7 +1786,7 @@
         <v>3.35</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AY7" t="n">
         <v>18.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.55</v>
@@ -1669,10 +1669,10 @@
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1696,55 +1696,55 @@
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
         <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AH7" t="n">
         <v>6.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
@@ -1753,46 +1753,46 @@
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS7" t="n">
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -932,7 +932,7 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>3.1</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -995,16 +995,16 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -1013,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1475,115 +1475,115 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
         <v>9.75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN6" t="n">
         <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR6" t="n">
         <v>32</v>
@@ -1592,28 +1592,28 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AY6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ6" t="n">
         <v>500</v>
       </c>
       <c r="BA6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB6" t="n">
         <v>500</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
         <v>2.1</v>
@@ -1678,16 +1678,16 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.83</v>
@@ -1699,22 +1699,22 @@
         <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
@@ -1723,7 +1723,7 @@
         <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1732,19 +1732,19 @@
         <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
@@ -1753,22 +1753,22 @@
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AO7" t="n">
         <v>35</v>
       </c>
       <c r="AP7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ7" t="n">
         <v>250</v>
       </c>
       <c r="AR7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS7" t="n">
         <v>500</v>
@@ -1780,7 +1780,7 @@
         <v>8.25</v>
       </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="n">
         <v>3.3</v>
@@ -1789,7 +1789,7 @@
         <v>7.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.35</v>
@@ -798,13 +798,13 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -825,16 +825,16 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -849,16 +849,16 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.38</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -819,22 +819,22 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -870,13 +870,13 @@
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -1147,34 +1147,34 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
         <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
         <v>6.2</v>
@@ -1192,61 +1192,61 @@
         <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
         <v>600</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="n">
         <v>110</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
         <v>14.5</v>
@@ -1723,19 +1723,19 @@
         <v>65</v>
       </c>
       <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AH7" t="n">
         <v>6.7</v>
@@ -1750,19 +1750,19 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AO7" t="n">
         <v>35</v>
       </c>
       <c r="AP7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ7" t="n">
         <v>250</v>
@@ -1774,31 +1774,31 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
         <v>8.25</v>
       </c>
       <c r="AV7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW7" t="n">
         <v>3.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -980,13 +980,13 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -995,16 +995,16 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -1013,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1049,16 +1049,16 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1067,10 +1067,10 @@
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,88 +1111,88 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.45</v>
       </c>
       <c r="T4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
         <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
         <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10.25</v>
@@ -1204,40 +1204,40 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="n">
         <v>600</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
         <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
         <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX4" t="n">
         <v>15.5</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
@@ -1666,46 +1666,46 @@
         <v>1.53</v>
       </c>
       <c r="J7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L7" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
         <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X7" t="n">
         <v>35</v>
@@ -1723,31 +1723,31 @@
         <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
         <v>7.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
@@ -1762,10 +1762,10 @@
         <v>35</v>
       </c>
       <c r="AP7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR7" t="n">
         <v>250</v>
@@ -1774,31 +1774,31 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
         <v>3.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1687,67 +1687,67 @@
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.98</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="n">
         <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
@@ -1756,49 +1756,49 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>35</v>
       </c>
       <c r="AP7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS7" t="n">
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW7" t="n">
         <v>3.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1141,7 +1141,7 @@
         <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.62</v>
@@ -1156,25 +1156,25 @@
         <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1183,7 +1183,7 @@
         <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
         <v>70</v>
@@ -1192,16 +1192,16 @@
         <v>7.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
         <v>37</v>
@@ -1213,16 +1213,16 @@
         <v>4.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
@@ -1237,19 +1237,19 @@
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
         <v>300</v>
@@ -1475,145 +1475,145 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="L6" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.87</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X6" t="n">
         <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BA6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BB6" t="n">
         <v>500</v>
@@ -1842,19 +1842,19 @@
         <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K8" t="n">
         <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1866,7 +1866,7 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1875,10 +1875,10 @@
         <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,10 +1887,10 @@
         <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
@@ -1899,40 +1899,40 @@
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="n">
         <v>250</v>
@@ -1941,28 +1941,28 @@
         <v>4.35</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW8" t="n">
         <v>5.1</v>
@@ -1971,16 +1971,16 @@
         <v>15.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>70</v>
       </c>
       <c r="BA8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.25</v>
@@ -1111,25 +1111,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
@@ -1156,31 +1156,31 @@
         <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE4" t="n">
         <v>13.5</v>
@@ -1189,19 +1189,19 @@
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>37</v>
@@ -1210,19 +1210,19 @@
         <v>600</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
@@ -1237,19 +1237,19 @@
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="AX4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
         <v>300</v>
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.38</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.39</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="n">
         <v>2.15</v>
@@ -1341,49 +1341,49 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
         <v>120</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1392,46 +1392,46 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AR5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>100</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB5" t="n">
         <v>300</v>
@@ -1475,25 +1475,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1.65</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>9.75</v>
@@ -1505,16 +1505,16 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1544,7 +1544,7 @@
         <v>9.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1556,19 +1556,19 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
@@ -1592,7 +1592,7 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,19 +1601,19 @@
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY6" t="n">
         <v>45</v>
       </c>
       <c r="AZ6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
         <v>500</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
         <v>2.12</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1687,19 +1687,19 @@
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.75</v>
@@ -1708,28 +1708,28 @@
         <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
         <v>110</v>
       </c>
       <c r="AA7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB7" t="n">
         <v>65</v>
       </c>
-      <c r="AB7" t="n">
-        <v>70</v>
-      </c>
       <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.1</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
@@ -1738,16 +1738,16 @@
         <v>6.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
@@ -1759,46 +1759,46 @@
         <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR7" t="n">
         <v>250</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>300</v>
       </c>
       <c r="AS7" t="n">
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AX7" t="n">
         <v>7.6</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1884,34 +1884,34 @@
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>9.75</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="AA8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>45</v>
@@ -1920,67 +1920,67 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
         <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>1.98</v>
@@ -1132,19 +1132,19 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.45</v>
@@ -1153,13 +1153,13 @@
         <v>2.55</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
@@ -1177,10 +1177,10 @@
         <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13.5</v>
@@ -1189,22 +1189,22 @@
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
         <v>600</v>
@@ -1213,7 +1213,7 @@
         <v>4.65</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP4" t="n">
         <v>22</v>
@@ -1225,7 +1225,7 @@
         <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
         <v>2.55</v>
@@ -1237,19 +1237,19 @@
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>70</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
         <v>300</v>
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J5" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.15</v>
@@ -1341,16 +1341,16 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AA5" t="n">
         <v>120</v>
@@ -1359,13 +1359,13 @@
         <v>110</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>120</v>
@@ -1374,16 +1374,16 @@
         <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1392,7 +1392,7 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO5" t="n">
         <v>55</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="AR5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1422,13 +1422,13 @@
         <v>3.05</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AY5" t="n">
         <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA5" t="n">
         <v>50</v>
@@ -1660,25 +1660,25 @@
         <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
         <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1687,16 +1687,16 @@
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1714,7 +1714,7 @@
         <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>60</v>
@@ -1723,10 +1723,10 @@
         <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
@@ -1735,7 +1735,7 @@
         <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1744,7 +1744,7 @@
         <v>8.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
         <v>13.5</v>
@@ -1756,7 +1756,7 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
@@ -1774,31 +1774,31 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX7" t="n">
         <v>7.8</v>
       </c>
-      <c r="AV7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -798,43 +798,43 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,10 +873,10 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,34 +777,34 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -819,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>67</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.2</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -816,7 +816,7 @@
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,10 +825,10 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-15.xlsx
@@ -747,85 +747,85 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.25</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -849,31 +849,31 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
